--- a/fpga-results.xlsx
+++ b/fpga-results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjt/Work/FPGA_CPU_HARP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjt/Work/fpga_cpu_harp2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5EEACD-95BA-4246-8207-B43D127C8B2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D232D2-66B4-8742-B6C1-A9CF37874AD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="540" windowWidth="18160" windowHeight="16140" tabRatio="988" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="480" windowWidth="18160" windowHeight="16140" tabRatio="988" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RSCD" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>Kernel</t>
   </si>
@@ -249,10 +249,6 @@
   </si>
   <si>
     <t>2,191 / 2,713 ( 81 % )</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>r3-1_ul7m_ul2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -364,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -417,6 +413,7 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1235,15 +1232,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9443AD-ABD6-ED45-8376-5BDE43EC0984}">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="12">
@@ -1356,56 +1355,56 @@
       </c>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:18" s="14" customFormat="1" ht="36">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:18" s="20" customFormat="1" ht="48">
+      <c r="A4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="16">
         <v>293518</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="17">
         <v>379819</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="18">
         <v>190.625</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="16">
         <v>0.71299999999999997</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="16">
         <v>3.8540000000000001</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="16">
         <v>0.123</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="16">
         <v>2.7429999999999999</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="16">
         <v>1.0109999999999999</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="16">
         <v>1.7310000000000001</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="16">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="16">
         <v>0.95699999999999996</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:18" ht="36">
       <c r="A5" s="2" t="s">
@@ -1458,76 +1457,75 @@
       </c>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" ht="36">
       <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="11">
+        <v>282389</v>
+      </c>
+      <c r="C6" s="12">
+        <v>348624</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" ht="36">
-      <c r="A7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="11">
-        <v>282389</v>
-      </c>
-      <c r="C7" s="12">
-        <v>348624</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="H6" s="13">
         <v>208.33333334</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I6" s="13">
         <v>0.47099999999999997</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J6" s="11">
         <v>3.8719999999999999</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K6" s="11">
         <v>0.123</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L6" s="11">
         <v>2.601</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M6" s="11">
         <v>0.77600000000000002</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N6" s="11">
         <v>1.825</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O6" s="11">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P6" s="11">
         <v>1.0469999999999999</v>
       </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="2"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="2"/>
     </row>
@@ -1859,7 +1857,7 @@
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="13"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="13"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
@@ -2151,26 +2149,6 @@
       <c r="Q38" s="11"/>
       <c r="R38" s="2"/>
     </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="2"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fpga-results.xlsx
+++ b/fpga-results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjt/Work/fpga_cpu_harp2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D232D2-66B4-8742-B6C1-A9CF37874AD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE6DFBB-E1C9-8F47-AA00-09A4412DF633}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="480" windowWidth="18160" windowHeight="16140" tabRatio="988" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="18160" windowHeight="16080" tabRatio="988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RSCD" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
   <si>
     <t>Kernel</t>
   </si>
@@ -265,6 +265,54 @@
   </si>
   <si>
     <t>1,502 / 2,713 ( 55 % )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bdx-opencl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pac-a10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NDR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ul14_cu2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ul18_cu2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>346 / 1,518 ( 23 % )</t>
+  </si>
+  <si>
+    <t>1,247 / 2,713 ( 46 % )</t>
+  </si>
+  <si>
+    <t>394 / 1,518 ( 26 % )</t>
+  </si>
+  <si>
+    <t>1,465 / 2,713 ( 54 % )</t>
+  </si>
+  <si>
+    <t>159,245 / 427,200 ( 37 % )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,427,800 / 55,562,240 ( 31 % )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>176,288 / 427,200 ( 41 % )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,051,736 / 55,562,240 ( 38 % )</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -275,7 +323,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -314,6 +362,32 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -360,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -414,6 +488,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -796,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -808,364 +893,335 @@
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="12">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1">
+      <c r="A3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="24">
-      <c r="A2" s="4" t="s">
+    <row r="4" spans="1:15" ht="24">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" ht="36">
-      <c r="A3" s="2" t="s">
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" ht="36">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B5" s="11">
         <v>243426</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C5" s="12">
         <v>317699</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H5" s="13">
         <v>186.11111111100001</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I5" s="11">
         <v>0.497</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J5" s="11">
         <v>3.89</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K5" s="11">
         <v>0.127</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L5" s="11">
         <v>2.1110000000000002</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M5" s="11">
         <v>3.9E-2</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N5" s="11">
         <v>0.82899999999999996</v>
       </c>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" s="14" customFormat="1" ht="36">
-      <c r="A4" s="11" t="s">
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" s="14" customFormat="1" ht="36">
+      <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B6" s="11">
         <v>299533</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C6" s="12">
         <v>387967</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="13">
-        <v>145.3125</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0.51</v>
-      </c>
-      <c r="J4" s="11">
-        <v>3.1190000000000002</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="L4" s="11">
-        <v>2.2120000000000002</v>
-      </c>
-      <c r="M4" s="11">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="N4" s="11">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="1:15" s="19" customFormat="1" ht="36">
-      <c r="A5" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="16">
-        <v>299303</v>
-      </c>
-      <c r="C5" s="17">
-        <v>388268</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="18">
-        <v>181.481481481</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0.436</v>
-      </c>
-      <c r="J5" s="16">
-        <v>3.8660000000000001</v>
-      </c>
-      <c r="K5" s="16">
-        <v>0.128</v>
-      </c>
-      <c r="L5" s="16">
-        <v>1.776</v>
-      </c>
-      <c r="M5" s="16">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="N5" s="16">
-        <v>0.874</v>
-      </c>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="36">
-      <c r="A6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="11">
-        <v>299222</v>
-      </c>
-      <c r="C6" s="12">
-        <v>388256</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="13">
+        <v>145.3125</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="J6" s="11">
+        <v>3.1190000000000002</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="L6" s="11">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="M6" s="11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" s="19" customFormat="1" ht="36">
+      <c r="A7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="16">
+        <v>299303</v>
+      </c>
+      <c r="C7" s="17">
+        <v>388268</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="18">
+        <v>181.481481481</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0.436</v>
+      </c>
+      <c r="J7" s="16">
+        <v>3.8660000000000001</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0.128</v>
+      </c>
+      <c r="L7" s="16">
+        <v>1.776</v>
+      </c>
+      <c r="M7" s="16">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0.874</v>
+      </c>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" ht="36">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="11">
+        <v>299222</v>
+      </c>
+      <c r="C8" s="12">
+        <v>388256</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H8" s="13">
         <v>177.777777778</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I8" s="11">
         <v>0.47499999999999998</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J8" s="11">
         <v>3.8260000000000001</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K8" s="11">
         <v>0.13400000000000001</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L8" s="11">
         <v>1.8220000000000001</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M8" s="11">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N8" s="11">
         <v>1.2190000000000001</v>
       </c>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" ht="36">
-      <c r="A7" s="2" t="s">
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="36">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B9" s="11">
         <v>368735</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C9" s="12">
         <v>493156</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H9" s="13">
         <v>157.8125</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I9" s="11">
         <v>0.48799999999999999</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J9" s="11">
         <v>3.8340000000000001</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K9" s="11">
         <v>0.11899999999999999</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L9" s="11">
         <v>1.8440000000000001</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M9" s="11">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N9" s="11">
         <v>0.88</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" ht="36">
-      <c r="A8" s="2" t="s">
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="36">
+      <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B10" s="11">
         <v>286005</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C10" s="12">
         <v>354876</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H10" s="13">
         <v>208.333333334</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I10" s="11">
         <v>0.745</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J10" s="11">
         <v>3.2269999999999999</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K10" s="11">
         <v>0.16800000000000001</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L10" s="11">
         <v>1.786</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M10" s="11">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N10" s="11">
         <v>18.803000000000001</v>
       </c>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
@@ -1186,9 +1242,15 @@
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1202,27 +1264,145 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+    <row r="13" spans="1:15" ht="24">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" s="14" customFormat="1" ht="36">
+      <c r="A14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="11">
+        <v>237072</v>
+      </c>
+      <c r="C14" s="12">
+        <v>228216</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="13">
+        <v>202</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="J14" s="11">
+        <v>3.8820000000000001</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.316</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" s="20" customFormat="1" ht="36">
+      <c r="A15" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="16">
+        <v>265309</v>
+      </c>
+      <c r="C15" s="17">
+        <v>247149</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="18">
+        <v>181</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="J15" s="16">
+        <v>3.8610000000000002</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0.316</v>
+      </c>
+      <c r="L15" s="16">
+        <v>1.738</v>
+      </c>
+      <c r="M15" s="16">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="N15" s="16">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="O15" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1234,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9443AD-ABD6-ED45-8376-5BDE43EC0984}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1355,7 +1535,7 @@
       </c>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:18" s="20" customFormat="1" ht="48">
+    <row r="4" spans="1:18" s="20" customFormat="1" ht="36">
       <c r="A4" s="16" t="s">
         <v>43</v>
       </c>
